--- a/docs/工作任务安排.xlsx
+++ b/docs/工作任务安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>需求</t>
   </si>
@@ -42,13 +42,19 @@
     <t>host 模块的基本增删改查</t>
   </si>
   <si>
-    <t>正在做</t>
+    <t>YES</t>
   </si>
   <si>
     <t>group 模块的基本增删改查</t>
   </si>
   <si>
+    <t>Underway</t>
+  </si>
+  <si>
     <t>service 模块的基本增删改查</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>service_index 模块的基本增删改查</t>
@@ -104,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +138,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -146,8 +160,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,28 +245,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,77 +277,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +335,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,49 +407,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,122 +525,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -618,50 +632,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,6 +646,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,11 +676,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,9 +724,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,137 +752,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,13 +901,13 @@
     <xf numFmtId="31" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="31" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,16 +916,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,9 +940,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,9 +958,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,9 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,17 +1317,16 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="26.625" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="4" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1368,7 +1364,9 @@
       <c r="D3" s="5">
         <v>42740</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>42745</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
         <v>8</v>
@@ -1380,120 +1378,142 @@
       <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11">
+        <v>42745</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" ht="18.75" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" ht="18.75" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" ht="18.75" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="18.75" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" ht="18.75" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" ht="18.75" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" ht="18.75" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" ht="18.75" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" ht="18.75" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" ht="18.75" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" ht="18.75" spans="1:7">
       <c r="A15" s="1"/>
@@ -1501,252 +1521,278 @@
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" ht="18.75" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="19"/>
       <c r="C16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="15"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" ht="18.75" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="19"/>
       <c r="C17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" ht="18.75" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="19"/>
       <c r="C18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" ht="18.75" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="19"/>
       <c r="C19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" ht="18.75" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="19"/>
       <c r="C20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" ht="18.75" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="19"/>
       <c r="C21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="15"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" ht="18.75" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="19"/>
       <c r="C22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" ht="18.75" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="19"/>
       <c r="C23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="15"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" ht="18.75" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
     <row r="25" ht="56.25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="15"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" ht="18.75" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" ht="37.5" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="15"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" ht="18.75" spans="1:7">
       <c r="A28" s="1"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
     <row r="29" ht="37.5" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="15"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" ht="18.75" spans="1:7">
       <c r="A30" s="1"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
     <row r="31" ht="18.75" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" ht="18.75" spans="1:7">
       <c r="A32" s="1"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" ht="18.75" spans="1:7">
       <c r="A33" s="1"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1"/>
-      <c r="B34" s="29"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1"/>
-      <c r="B35" s="29"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1"/>
-      <c r="B36" s="29"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1"/>
-      <c r="B37" s="29"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1"/>
-      <c r="B38" s="29"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1"/>
-      <c r="B39" s="29"/>
+      <c r="B39" s="28"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1"/>
-      <c r="B40" s="29"/>
+      <c r="B40" s="28"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1"/>
-      <c r="B41" s="29"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1"/>
-      <c r="B42" s="29"/>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1"/>

--- a/docs/工作任务安排.xlsx
+++ b/docs/工作任务安排.xlsx
@@ -54,31 +54,31 @@
     <t>service 模块的基本增删改查</t>
   </si>
   <si>
+    <t>service_index 模块的基本增删改查</t>
+  </si>
+  <si>
+    <t>template 模块的基本增删改查</t>
+  </si>
+  <si>
+    <t>trigger 模块的基本增删改查</t>
+  </si>
+  <si>
+    <t>trigger_expression 模块的基本增删改查</t>
+  </si>
+  <si>
+    <t>action 模块的基本增删改查</t>
+  </si>
+  <si>
+    <t>action_operation 模块的基本增删改查</t>
+  </si>
+  <si>
+    <t>maintain 模块的基本增删改查</t>
+  </si>
+  <si>
+    <t>前端对接控制台页面各模块基本功能</t>
+  </si>
+  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>service_index 模块的基本增删改查</t>
-  </si>
-  <si>
-    <t>template 模块的基本增删改查</t>
-  </si>
-  <si>
-    <t>trigger 模块的基本增删改查</t>
-  </si>
-  <si>
-    <t>trigger_expression 模块的基本增删改查</t>
-  </si>
-  <si>
-    <t>action 模块的基本增删改查</t>
-  </si>
-  <si>
-    <t>action_operation 模块的基本增删改查</t>
-  </si>
-  <si>
-    <t>maintain 模块的基本增删改查</t>
-  </si>
-  <si>
-    <t>前端对接控制台页面各模块基本功能</t>
   </si>
   <si>
     <t>数据处理</t>
@@ -110,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -154,7 +154,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,128 +289,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -341,6 +341,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,13 +377,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +467,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,133 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +632,32 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -660,39 +686,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -703,6 +696,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,11 +726,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,7 +743,7 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,130 +755,130 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,9 +928,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,6 +939,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1393,253 +1393,269 @@
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="11">
+        <v>42745</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="11">
+        <v>42745</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="11">
+        <v>42745</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="11">
+        <v>42745</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="11">
+        <v>42745</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="11">
+        <v>42745</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="D11" s="11">
+        <v>42745</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="18.75" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D12" s="11">
+        <v>42745</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="18.75" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" ht="18.75" spans="1:7">
       <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
-        <v>20</v>
+      <c r="B14" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:7">
       <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:7">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="19"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:7">
       <c r="A22" s="1"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="19"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="18.75" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="19"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" ht="56.25" spans="1:7">
       <c r="A25" s="1"/>
@@ -1649,20 +1665,20 @@
       <c r="C25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" ht="37.5" spans="1:7">
@@ -1673,21 +1689,21 @@
       <c r="C27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:7">
       <c r="A28" s="1"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" ht="37.5" spans="1:7">
       <c r="A29" s="1"/>
@@ -1697,21 +1713,21 @@
       <c r="C29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:7">
       <c r="A30" s="1"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" ht="18.75" spans="1:7">
       <c r="A31" s="1"/>
@@ -1725,7 +1741,7 @@
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
       <c r="G31" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="18.75" spans="1:7">

--- a/docs/工作任务安排.xlsx
+++ b/docs/工作任务安排.xlsx
@@ -110,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -154,6 +154,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,8 +251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,32 +276,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,67 +289,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -341,91 +341,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,73 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,17 +632,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,17 +650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,11 +683,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,8 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,134 +755,134 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +926,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,7 +1320,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1471,10 +1474,12 @@
       <c r="D10" s="11">
         <v>42745</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="15">
+        <v>42771</v>
+      </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="14" t="s">
-        <v>10</v>
+      <c r="G10" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:7">
@@ -1486,10 +1491,12 @@
       <c r="D11" s="11">
         <v>42745</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="15">
+        <v>42771</v>
+      </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="14" t="s">
-        <v>10</v>
+      <c r="G11" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="18.75" spans="1:7">
@@ -1509,22 +1516,22 @@
     </row>
     <row r="13" ht="18.75" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" ht="18.75" spans="1:7">
       <c r="A14" s="1"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
@@ -1533,11 +1540,11 @@
     </row>
     <row r="15" ht="18.75" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14" t="s">
@@ -1546,11 +1553,11 @@
     </row>
     <row r="16" ht="18.75" spans="1:7">
       <c r="A16" s="1"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
@@ -1559,11 +1566,11 @@
     </row>
     <row r="17" ht="18.75" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
@@ -1572,11 +1579,11 @@
     </row>
     <row r="18" ht="18.75" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
@@ -1585,11 +1592,11 @@
     </row>
     <row r="19" ht="18.75" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
@@ -1598,11 +1605,11 @@
     </row>
     <row r="20" ht="18.75" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
@@ -1611,11 +1618,11 @@
     </row>
     <row r="21" ht="18.75" spans="1:7">
       <c r="A21" s="1"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
@@ -1624,11 +1631,11 @@
     </row>
     <row r="22" ht="18.75" spans="1:7">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
@@ -1637,11 +1644,11 @@
     </row>
     <row r="23" ht="18.75" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
@@ -1650,12 +1657,12 @@
     </row>
     <row r="24" ht="18.75" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" ht="56.25" spans="1:7">
       <c r="A25" s="1"/>
@@ -1665,7 +1672,7 @@
       <c r="C25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14" t="s">
@@ -1674,11 +1681,11 @@
     </row>
     <row r="26" ht="18.75" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" ht="37.5" spans="1:7">
@@ -1689,7 +1696,7 @@
       <c r="C27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
@@ -1698,12 +1705,12 @@
     </row>
     <row r="28" ht="18.75" spans="1:7">
       <c r="A28" s="1"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" ht="37.5" spans="1:7">
       <c r="A29" s="1"/>
@@ -1713,7 +1720,7 @@
       <c r="C29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
@@ -1722,93 +1729,93 @@
     </row>
     <row r="30" ht="18.75" spans="1:7">
       <c r="A30" s="1"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" ht="18.75" spans="1:7">
       <c r="A31" s="1"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" ht="18.75" spans="1:7">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" ht="18.75" spans="1:7">
       <c r="A33" s="1"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="29"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="29"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1"/>
-      <c r="B40" s="28"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1"/>
-      <c r="B41" s="28"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1"/>
-      <c r="B42" s="28"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1"/>
-      <c r="B43" s="28"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1"/>
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1"/>

--- a/docs/工作任务安排.xlsx
+++ b/docs/工作任务安排.xlsx
@@ -110,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -147,21 +147,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +207,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -183,39 +237,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,37 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -274,21 +289,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -341,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +632,17 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,7 +665,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,7 +674,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,17 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -740,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,133 +752,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -919,16 +919,16 @@
     <xf numFmtId="31" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1384,7 +1384,9 @@
       <c r="D4" s="11">
         <v>42745</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12">
+        <v>42779</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14" t="s">
         <v>10</v>
@@ -1399,7 +1401,7 @@
       <c r="D5" s="11">
         <v>42745</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
         <v>10</v>
@@ -1414,7 +1416,7 @@
       <c r="D6" s="11">
         <v>42745</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14" t="s">
         <v>10</v>
@@ -1429,7 +1431,7 @@
       <c r="D7" s="11">
         <v>42745</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14" t="s">
         <v>10</v>
@@ -1444,7 +1446,7 @@
       <c r="D8" s="11">
         <v>42745</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="13"/>
       <c r="G8" s="14" t="s">
         <v>10</v>
@@ -1459,7 +1461,7 @@
       <c r="D9" s="11">
         <v>42745</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14" t="s">
         <v>10</v>
@@ -1474,7 +1476,7 @@
       <c r="D10" s="11">
         <v>42745</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>42771</v>
       </c>
       <c r="F10" s="13"/>
@@ -1491,7 +1493,7 @@
       <c r="D11" s="11">
         <v>42745</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>42771</v>
       </c>
       <c r="F11" s="13"/>
@@ -1508,7 +1510,7 @@
       <c r="D12" s="11">
         <v>42745</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14" t="s">
         <v>10</v>
@@ -1532,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
         <v>20</v>
@@ -1545,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14" t="s">
         <v>20</v>
@@ -1558,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
         <v>20</v>
@@ -1571,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
         <v>20</v>
@@ -1584,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="20"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
         <v>20</v>
@@ -1597,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
         <v>20</v>
@@ -1610,7 +1612,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="20"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
         <v>20</v>
@@ -1623,7 +1625,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
         <v>20</v>
@@ -1636,7 +1638,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
         <v>20</v>
@@ -1649,7 +1651,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
         <v>20</v>
@@ -1673,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="20"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14" t="s">
         <v>20</v>
@@ -1697,7 +1699,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
         <v>20</v>
@@ -1721,7 +1723,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="20"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
         <v>20</v>

--- a/docs/工作任务安排.xlsx
+++ b/docs/工作任务安排.xlsx
@@ -48,10 +48,10 @@
     <t>group 模块的基本增删改查</t>
   </si>
   <si>
+    <t>service 模块的基本增删改查</t>
+  </si>
+  <si>
     <t>Underway</t>
-  </si>
-  <si>
-    <t>service 模块的基本增删改查</t>
   </si>
   <si>
     <t>service_index 模块的基本增删改查</t>
@@ -112,8 +112,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -147,14 +147,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +247,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -176,37 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -215,76 +284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,11 +637,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,11 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,7 +678,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,21 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,6 +715,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -740,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,7 +752,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,124 +761,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -925,10 +925,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1388,23 +1388,23 @@
         <v>42779</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="14" t="s">
-        <v>10</v>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11">
         <v>42745</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
+      <c r="G5" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:7">
@@ -1416,10 +1416,10 @@
       <c r="D6" s="11">
         <v>42745</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
-        <v>10</v>
+      <c r="G6" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:7">
@@ -1431,10 +1431,10 @@
       <c r="D7" s="11">
         <v>42745</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="14" t="s">
-        <v>10</v>
+      <c r="G7" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:7">
@@ -1446,10 +1446,10 @@
       <c r="D8" s="11">
         <v>42745</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
-        <v>10</v>
+      <c r="G8" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:7">
@@ -1461,10 +1461,10 @@
       <c r="D9" s="11">
         <v>42745</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
-        <v>10</v>
+      <c r="G9" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:7">
@@ -1510,10 +1510,12 @@
       <c r="D12" s="11">
         <v>42745</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="12">
+        <v>42779</v>
+      </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="14" t="s">
-        <v>10</v>
+      <c r="G12" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="18.75" spans="1:7">
@@ -1534,9 +1536,9 @@
         <v>7</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1547,9 +1549,9 @@
         <v>9</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1557,12 +1559,12 @@
       <c r="A16" s="1"/>
       <c r="B16" s="19"/>
       <c r="C16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1573,9 +1575,9 @@
         <v>12</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1586,9 +1588,9 @@
         <v>13</v>
       </c>
       <c r="D18" s="20"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1599,9 +1601,9 @@
         <v>14</v>
       </c>
       <c r="D19" s="20"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1612,9 +1614,9 @@
         <v>15</v>
       </c>
       <c r="D20" s="20"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1625,9 +1627,9 @@
         <v>16</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1638,9 +1640,9 @@
         <v>17</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1651,9 +1653,9 @@
         <v>18</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1675,9 +1677,9 @@
         <v>22</v>
       </c>
       <c r="D25" s="20"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1688,7 +1690,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" ht="37.5" spans="1:7">
       <c r="A27" s="1"/>
@@ -1699,9 +1701,9 @@
         <v>24</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1723,9 +1725,9 @@
         <v>26</v>
       </c>
       <c r="D29" s="20"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1749,7 +1751,7 @@
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="15" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/工作任务安排.xlsx
+++ b/docs/工作任务安排.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>需求</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>维护模块也可以做一个中间件</t>
+  </si>
+  <si>
+    <t>之后的工作任务安排迁移到了 Trello 上面，访问地址是 https://trello.com/b/az8GMGPA</t>
   </si>
 </sst>
 </file>
@@ -110,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -146,8 +149,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,54 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +256,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -230,9 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,50 +292,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -341,19 +344,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,163 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,45 +635,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,6 +662,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -713,13 +692,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +724,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,133 +755,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1319,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1764,26 +1767,43 @@
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" ht="18.75" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
-      <c r="B34" s="29"/>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
-      <c r="B35" s="29"/>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
-      <c r="B36" s="29"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1"/>
@@ -1975,10 +1995,11 @@
       <c r="A96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A96"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B33:G36"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
